--- a/src/test/resources/ExcelSheet/plantNg.xlsx
+++ b/src/test/resources/ExcelSheet/plantNg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VINTHUSHA\TokyoProject\tokyo-automation-framework\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testconfig\FinalTokyoProject\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,9 +74,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RE001</t>
-  </si>
-  <si>
     <t>Fax</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>plant start</t>
   </si>
   <si>
-    <t>RE002</t>
-  </si>
-  <si>
     <t>Desigination</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>RE003</t>
-  </si>
-  <si>
     <t>anurathapuram</t>
   </si>
   <si>
@@ -231,6 +222,15 @@
   </si>
   <si>
     <t>CoNo</t>
+  </si>
+  <si>
+    <t>REX</t>
+  </si>
+  <si>
+    <t>REY</t>
+  </si>
+  <si>
+    <t>REZ</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -767,16 +767,16 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>11</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>213659876</v>
@@ -799,18 +799,18 @@
         <v>213659876</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>213659877</v>
@@ -819,18 +819,18 @@
         <v>213659877</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>213659768</v>
@@ -839,7 +839,7 @@
         <v>213659768</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -866,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>11</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>212215563</v>
@@ -889,15 +889,15 @@
         <v>212214563</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>212265632</v>
@@ -906,15 +906,15 @@
         <v>212245632</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>216596389</v>
@@ -923,7 +923,7 @@
         <v>216596389</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -956,20 +956,20 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1025,108 +1025,108 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1155,83 +1155,83 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>774562319</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1261,25 +1261,25 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="14.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="16.5">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
     </row>
